--- a/apps/load_data/2017/10/PLMOVMAE.xlsx
+++ b/apps/load_data/2017/10/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2017\HHY1017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2017\HHY1017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81067582-380C-4096-BD9C-AD4ED3F96571}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA5D19C-8874-420F-A28E-11F843E40490}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$265</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$260</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10817" uniqueCount="2579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10804" uniqueCount="2577">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6412,9 +6413,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>1047    129035    1290351081    296920    2969201082    159880    1598802001         0     386002006     40000     400002026    202894    2028942027      3068      30682028      6000      60002029      1500      15002086      2500      2500</t>
   </si>
   <si>
@@ -7733,9 +7731,6 @@
   </si>
   <si>
     <t>06567208</t>
-  </si>
-  <si>
-    <t>S/M</t>
   </si>
   <si>
     <t>6501080BIHTE003</t>
@@ -8618,8 +8613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="A261" sqref="A261:XFD265"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD260" sqref="AC209:AD260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45620,12 +45615,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2129</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>104</v>
       </c>
@@ -45690,10 +45680,10 @@
         <v>112</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2130</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2131</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>115</v>
@@ -45705,7 +45695,7 @@
         <v>153</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>119</v>
@@ -45726,13 +45716,13 @@
         <v>98</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2133</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2134</v>
-      </c>
-      <c r="CE209" s="1" t="s">
-        <v>2135</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -45767,13 +45757,13 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2137</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2138</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>97</v>
@@ -45808,12 +45798,7 @@
       <c r="AB210" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2129</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>104</v>
       </c>
@@ -45860,7 +45845,7 @@
         <v>98</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="BB210" s="1">
         <v>10</v>
@@ -45878,10 +45863,10 @@
         <v>112</v>
       </c>
       <c r="BH210" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="BI210" s="1" t="s">
         <v>2140</v>
-      </c>
-      <c r="BI210" s="1" t="s">
-        <v>2141</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>115</v>
@@ -45893,13 +45878,13 @@
         <v>99</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="BS210" s="3">
         <v>36949</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>119</v>
@@ -45923,13 +45908,13 @@
         <v>98</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="CD210" s="1" t="s">
         <v>1768</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -45964,13 +45949,13 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2146</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2147</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2148</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
@@ -46005,12 +45990,7 @@
       <c r="AB211" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2129</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>104</v>
       </c>
@@ -46057,7 +46037,7 @@
         <v>98</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="BB211" s="1">
         <v>10</v>
@@ -46078,7 +46058,7 @@
         <v>112</v>
       </c>
       <c r="BH211" s="1" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="BI211" s="1" t="s">
         <v>1441</v>
@@ -46093,13 +46073,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="BS211" s="3">
         <v>36825</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>119</v>
@@ -46123,13 +46103,13 @@
         <v>98</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2153</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2154</v>
-      </c>
-      <c r="CE211" s="1" t="s">
-        <v>2155</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -46164,13 +46144,13 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2156</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2157</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2158</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
@@ -46202,12 +46182,7 @@
       <c r="AA212" s="1">
         <v>0</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2129</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>104</v>
       </c>
@@ -46257,7 +46232,7 @@
         <v>98</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="BB212" s="1">
         <v>10</v>
@@ -46275,10 +46250,10 @@
         <v>112</v>
       </c>
       <c r="BH212" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="BI212" s="1" t="s">
         <v>2160</v>
-      </c>
-      <c r="BI212" s="1" t="s">
-        <v>2161</v>
       </c>
       <c r="BM212" s="1" t="s">
         <v>115</v>
@@ -46287,7 +46262,7 @@
         <v>103</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>119</v>
@@ -46305,13 +46280,13 @@
         <v>98</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="CD212" s="1" t="s">
         <v>1102</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -46346,13 +46321,13 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2165</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2166</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2167</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
@@ -46384,12 +46359,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2129</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>104</v>
       </c>
@@ -46439,7 +46409,7 @@
         <v>98</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="BB213" s="1">
         <v>10</v>
@@ -46457,10 +46427,10 @@
         <v>112</v>
       </c>
       <c r="BH213" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="BI213" s="1" t="s">
         <v>2169</v>
-      </c>
-      <c r="BI213" s="1" t="s">
-        <v>2170</v>
       </c>
       <c r="BM213" s="1" t="s">
         <v>115</v>
@@ -46469,7 +46439,7 @@
         <v>103</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>119</v>
@@ -46490,10 +46460,10 @@
         <v>637</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2172</v>
-      </c>
-      <c r="CE213" s="1" t="s">
-        <v>2173</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -46528,13 +46498,13 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2174</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2175</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2176</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
@@ -46566,12 +46536,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2129</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>104</v>
       </c>
@@ -46621,7 +46586,7 @@
         <v>98</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="BB214" s="1">
         <v>10</v>
@@ -46642,7 +46607,7 @@
         <v>845</v>
       </c>
       <c r="BI214" s="1" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="BM214" s="1" t="s">
         <v>115</v>
@@ -46651,7 +46616,7 @@
         <v>103</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>119</v>
@@ -46669,13 +46634,13 @@
         <v>98</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="CD214" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2180</v>
-      </c>
-      <c r="CD214" s="1" t="s">
-        <v>2180</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2181</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -46710,13 +46675,13 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2182</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2183</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2184</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
@@ -46754,12 +46719,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2129</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>104</v>
       </c>
@@ -46806,7 +46766,7 @@
         <v>98</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="BB215" s="1">
         <v>10</v>
@@ -46815,7 +46775,7 @@
         <v>17</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="BE215" s="1" t="s">
         <v>110</v>
@@ -46827,10 +46787,10 @@
         <v>112</v>
       </c>
       <c r="BH215" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="BI215" s="1" t="s">
         <v>2187</v>
-      </c>
-      <c r="BI215" s="1" t="s">
-        <v>2188</v>
       </c>
       <c r="BM215" s="1" t="s">
         <v>115</v>
@@ -46842,13 +46802,13 @@
         <v>116</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="BS215" s="3">
         <v>35243</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>119</v>
@@ -46866,13 +46826,13 @@
         <v>98</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2191</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2192</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2193</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -46907,13 +46867,13 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2194</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2195</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2196</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
@@ -46945,12 +46905,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2129</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>104</v>
       </c>
@@ -47000,7 +46955,7 @@
         <v>98</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="BB216" s="1">
         <v>10</v>
@@ -47018,10 +46973,10 @@
         <v>112</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="BI216" s="1" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="BM216" s="1" t="s">
         <v>115</v>
@@ -47030,7 +46985,7 @@
         <v>103</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>119</v>
@@ -47048,13 +47003,13 @@
         <v>98</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2200</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2201</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2202</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -47089,13 +47044,13 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2203</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2204</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2205</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
@@ -47127,12 +47082,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2129</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>104</v>
       </c>
@@ -47182,7 +47132,7 @@
         <v>98</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="BB217" s="1">
         <v>10</v>
@@ -47200,10 +47150,10 @@
         <v>112</v>
       </c>
       <c r="BH217" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="BI217" s="1" t="s">
         <v>2207</v>
-      </c>
-      <c r="BI217" s="1" t="s">
-        <v>2208</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>115</v>
@@ -47215,7 +47165,7 @@
         <v>153</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>119</v>
@@ -47233,13 +47183,13 @@
         <v>98</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2210</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2211</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2212</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -47274,13 +47224,13 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2213</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2214</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2215</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
@@ -47312,12 +47262,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2129</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>104</v>
       </c>
@@ -47364,7 +47309,7 @@
         <v>98</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="BB218" s="1">
         <v>10</v>
@@ -47373,7 +47318,7 @@
         <v>17</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>110</v>
@@ -47385,10 +47330,10 @@
         <v>112</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2218</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2219</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>115</v>
@@ -47400,13 +47345,13 @@
         <v>205</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="BS218" s="3">
         <v>34307</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>119</v>
@@ -47424,13 +47369,13 @@
         <v>98</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>422</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -47465,13 +47410,13 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2224</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2225</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2226</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
@@ -47506,12 +47451,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2129</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>104</v>
       </c>
@@ -47561,7 +47501,7 @@
         <v>98</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="BB219" s="1">
         <v>10</v>
@@ -47582,10 +47522,10 @@
         <v>112</v>
       </c>
       <c r="BH219" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="BI219" s="1" t="s">
         <v>2228</v>
-      </c>
-      <c r="BI219" s="1" t="s">
-        <v>2229</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>115</v>
@@ -47594,7 +47534,7 @@
         <v>103</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>119</v>
@@ -47615,13 +47555,13 @@
         <v>98</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="CD219" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CE219" s="1" t="s">
         <v>2232</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2233</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -47656,13 +47596,13 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2234</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2235</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2236</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
@@ -47694,12 +47634,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2129</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>104</v>
       </c>
@@ -47746,7 +47681,7 @@
         <v>98</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="BB220" s="1">
         <v>10</v>
@@ -47767,10 +47702,10 @@
         <v>112</v>
       </c>
       <c r="BH220" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="BI220" s="1" t="s">
         <v>2238</v>
-      </c>
-      <c r="BI220" s="1" t="s">
-        <v>2239</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>115</v>
@@ -47782,13 +47717,13 @@
         <v>116</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="BS220" s="3">
         <v>35950</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>119</v>
@@ -47806,13 +47741,13 @@
         <v>98</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1606</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -47847,13 +47782,13 @@
         <v>313</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2245</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2246</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
@@ -47904,7 +47839,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="AO221" s="1">
         <v>0</v>
@@ -47949,13 +47884,13 @@
         <v>112</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>119</v>
@@ -47979,10 +47914,10 @@
         <v>2026</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2250</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2251</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -48017,13 +47952,13 @@
         <v>313</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2253</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2254</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
@@ -48077,7 +48012,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -48122,13 +48057,13 @@
         <v>112</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>119</v>
@@ -48149,13 +48084,13 @@
         <v>98</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2258</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2259</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -48190,13 +48125,13 @@
         <v>313</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2260</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2261</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2262</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
@@ -48250,7 +48185,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -48295,13 +48230,13 @@
         <v>112</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>119</v>
@@ -48322,13 +48257,13 @@
         <v>98</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2265</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2266</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2267</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -48363,13 +48298,13 @@
         <v>313</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2268</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2269</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2270</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
@@ -48465,13 +48400,13 @@
         <v>112</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>119</v>
@@ -48492,10 +48427,10 @@
         <v>98</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>193</v>
@@ -48533,13 +48468,13 @@
         <v>313</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2274</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2275</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2276</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
@@ -48593,7 +48528,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="1" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="AO225" s="1">
         <v>0</v>
@@ -48638,13 +48573,13 @@
         <v>112</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>119</v>
@@ -48668,13 +48603,13 @@
         <v>98</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>1118</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -48709,13 +48644,13 @@
         <v>313</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2280</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2281</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2282</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
@@ -48766,7 +48701,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -48811,13 +48746,13 @@
         <v>112</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>119</v>
@@ -48838,13 +48773,13 @@
         <v>98</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="CE226" s="1" t="s">
         <v>2286</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>2201</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2287</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -48879,10 +48814,10 @@
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2288</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2289</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>97</v>
@@ -48951,7 +48886,7 @@
         <v>16</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="BX227" s="1">
         <v>0</v>
@@ -48969,7 +48904,7 @@
         <v>219</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -49004,10 +48939,10 @@
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2291</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2292</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>97</v>
@@ -49091,7 +49026,7 @@
         <v>219</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -49126,13 +49061,13 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2293</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2294</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2295</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
@@ -49213,7 +49148,7 @@
         <v>98</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="BB229" s="1">
         <v>10</v>
@@ -49231,10 +49166,10 @@
         <v>112</v>
       </c>
       <c r="BH229" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="BI229" s="1" t="s">
         <v>2297</v>
-      </c>
-      <c r="BI229" s="1" t="s">
-        <v>2298</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>115</v>
@@ -49246,7 +49181,7 @@
         <v>153</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>119</v>
@@ -49264,13 +49199,13 @@
         <v>98</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>422</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.25">
@@ -49305,13 +49240,13 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2302</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2303</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2304</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
@@ -49389,7 +49324,7 @@
         <v>98</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BB230" s="1">
         <v>10</v>
@@ -49407,10 +49342,10 @@
         <v>112</v>
       </c>
       <c r="BH230" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="BI230" s="1" t="s">
         <v>2306</v>
-      </c>
-      <c r="BI230" s="1" t="s">
-        <v>2307</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>115</v>
@@ -49422,13 +49357,13 @@
         <v>205</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="BS230" s="3">
         <v>36099</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>119</v>
@@ -49446,13 +49381,13 @@
         <v>98</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2310</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2311</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2312</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -49487,13 +49422,13 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2313</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2314</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2315</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
@@ -49571,7 +49506,7 @@
         <v>98</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="BB231" s="1">
         <v>10</v>
@@ -49589,10 +49524,10 @@
         <v>112</v>
       </c>
       <c r="BH231" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="BI231" s="1" t="s">
         <v>2317</v>
-      </c>
-      <c r="BI231" s="1" t="s">
-        <v>2318</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>115</v>
@@ -49604,13 +49539,13 @@
         <v>99</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="BS231" s="3">
         <v>37735</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>119</v>
@@ -49628,13 +49563,13 @@
         <v>98</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2321</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2322</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2323</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -49669,13 +49604,13 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2324</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2325</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2326</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
@@ -49756,7 +49691,7 @@
         <v>98</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BB232" s="1">
         <v>10</v>
@@ -49774,7 +49709,7 @@
         <v>112</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BI232" s="1" t="s">
         <v>1655</v>
@@ -49786,7 +49721,7 @@
         <v>103</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>119</v>
@@ -49804,13 +49739,13 @@
         <v>98</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>796</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -49845,13 +49780,13 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2332</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2333</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2334</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
@@ -49887,7 +49822,7 @@
         <v>104</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>1704</v>
@@ -49932,7 +49867,7 @@
         <v>98</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BB233" s="1">
         <v>10</v>
@@ -49950,7 +49885,7 @@
         <v>112</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BI233" s="1" t="s">
         <v>1655</v>
@@ -49962,7 +49897,7 @@
         <v>103</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>119</v>
@@ -49983,10 +49918,10 @@
         <v>1422</v>
       </c>
       <c r="CD233" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="CE233" s="1" t="s">
         <v>2339</v>
-      </c>
-      <c r="CE233" s="1" t="s">
-        <v>2340</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -50021,13 +49956,13 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2341</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2342</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2343</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
@@ -50108,7 +50043,7 @@
         <v>98</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="BB234" s="1">
         <v>10</v>
@@ -50126,10 +50061,10 @@
         <v>112</v>
       </c>
       <c r="BH234" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="BI234" s="1" t="s">
         <v>2345</v>
-      </c>
-      <c r="BI234" s="1" t="s">
-        <v>2346</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>115</v>
@@ -50138,7 +50073,7 @@
         <v>103</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>119</v>
@@ -50162,7 +50097,7 @@
         <v>867</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -50197,13 +50132,13 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2349</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2350</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2351</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
@@ -50284,7 +50219,7 @@
         <v>98</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="BB235" s="1">
         <v>10</v>
@@ -50302,10 +50237,10 @@
         <v>112</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="BI235" s="1" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>115</v>
@@ -50314,7 +50249,7 @@
         <v>103</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>119</v>
@@ -50332,13 +50267,13 @@
         <v>98</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="CD235" s="1" t="s">
         <v>2355</v>
       </c>
-      <c r="CD235" s="1" t="s">
+      <c r="CE235" s="1" t="s">
         <v>2356</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2357</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -50373,13 +50308,13 @@
         <v>313</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2358</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2359</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2360</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
@@ -50421,7 +50356,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -50460,13 +50395,13 @@
         <v>112</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>119</v>
@@ -50484,13 +50419,13 @@
         <v>98</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>295</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="237" spans="1:83" x14ac:dyDescent="0.25">
@@ -50525,13 +50460,13 @@
         <v>93</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2366</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2367</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2368</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
@@ -50573,7 +50508,7 @@
         <v>42247</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>104</v>
@@ -50627,7 +50562,7 @@
         <v>17</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="BE237" s="1" t="s">
         <v>110</v>
@@ -50639,10 +50574,10 @@
         <v>112</v>
       </c>
       <c r="BH237" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="BI237" s="1" t="s">
         <v>2370</v>
-      </c>
-      <c r="BI237" s="1" t="s">
-        <v>2371</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>115</v>
@@ -50654,13 +50589,13 @@
         <v>205</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="BS237" s="3">
         <v>36580</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>119</v>
@@ -50681,7 +50616,7 @@
         <v>98</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>285</v>
@@ -50722,13 +50657,13 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>2375</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="N238" s="1" t="s">
         <v>2376</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>2377</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>97</v>
@@ -50824,10 +50759,10 @@
         <v>112</v>
       </c>
       <c r="BH238" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="BI238" s="1" t="s">
         <v>2378</v>
-      </c>
-      <c r="BI238" s="1" t="s">
-        <v>2379</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>115</v>
@@ -50839,13 +50774,13 @@
         <v>116</v>
       </c>
       <c r="BR238" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="BS238" s="3">
         <v>37747</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>119</v>
@@ -50869,7 +50804,7 @@
         <v>627</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="239" spans="1:83" x14ac:dyDescent="0.25">
@@ -50904,13 +50839,13 @@
         <v>93</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="L239" s="1" t="s">
         <v>2383</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="N239" s="1" t="s">
         <v>2384</v>
-      </c>
-      <c r="N239" s="1" t="s">
-        <v>2385</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>97</v>
@@ -51006,7 +50941,7 @@
         <v>112</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="BI239" s="1" t="s">
         <v>2034</v>
@@ -51018,7 +50953,7 @@
         <v>103</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>119</v>
@@ -51036,13 +50971,13 @@
         <v>98</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="CD239" s="1" t="s">
         <v>2388</v>
       </c>
-      <c r="CD239" s="1" t="s">
+      <c r="CE239" s="1" t="s">
         <v>2389</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2390</v>
       </c>
     </row>
     <row r="240" spans="1:83" x14ac:dyDescent="0.25">
@@ -51077,13 +51012,13 @@
         <v>93</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="L240" s="1" t="s">
         <v>2391</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="N240" s="1" t="s">
         <v>2392</v>
-      </c>
-      <c r="N240" s="1" t="s">
-        <v>2393</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>97</v>
@@ -51179,7 +51114,7 @@
         <v>112</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="BI240" s="1" t="s">
         <v>846</v>
@@ -51191,7 +51126,7 @@
         <v>103</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>119</v>
@@ -51209,13 +51144,13 @@
         <v>98</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="CD240" s="1" t="s">
         <v>2396</v>
       </c>
-      <c r="CD240" s="1" t="s">
+      <c r="CE240" s="1" t="s">
         <v>2397</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2398</v>
       </c>
     </row>
     <row r="241" spans="1:83" x14ac:dyDescent="0.25">
@@ -51250,13 +51185,13 @@
         <v>93</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="L241" s="1" t="s">
         <v>2399</v>
       </c>
-      <c r="L241" s="1" t="s">
+      <c r="N241" s="1" t="s">
         <v>2400</v>
-      </c>
-      <c r="N241" s="1" t="s">
-        <v>2401</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>97</v>
@@ -51352,10 +51287,10 @@
         <v>112</v>
       </c>
       <c r="BH241" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="BI241" s="1" t="s">
         <v>2402</v>
-      </c>
-      <c r="BI241" s="1" t="s">
-        <v>2403</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>115</v>
@@ -51367,13 +51302,13 @@
         <v>99</v>
       </c>
       <c r="BR241" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="BS241" s="3">
         <v>37334</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>119</v>
@@ -51394,10 +51329,10 @@
         <v>504</v>
       </c>
       <c r="CD241" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="CE241" s="1" t="s">
         <v>2406</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2407</v>
       </c>
     </row>
     <row r="242" spans="1:83" x14ac:dyDescent="0.25">
@@ -51432,13 +51367,13 @@
         <v>93</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="L242" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="N242" s="1" t="s">
         <v>2409</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>2410</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>97</v>
@@ -51534,10 +51469,10 @@
         <v>112</v>
       </c>
       <c r="BH242" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="BI242" s="1" t="s">
         <v>2411</v>
-      </c>
-      <c r="BI242" s="1" t="s">
-        <v>2412</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>115</v>
@@ -51549,13 +51484,13 @@
         <v>99</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BS242" s="3">
         <v>37904</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>119</v>
@@ -51576,10 +51511,10 @@
         <v>867</v>
       </c>
       <c r="CD242" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="CE242" s="1" t="s">
         <v>2415</v>
-      </c>
-      <c r="CE242" s="1" t="s">
-        <v>2416</v>
       </c>
     </row>
     <row r="243" spans="1:83" x14ac:dyDescent="0.25">
@@ -51614,13 +51549,13 @@
         <v>93</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="L243" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="N243" s="1" t="s">
         <v>2418</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>2419</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>97</v>
@@ -51713,7 +51648,7 @@
         <v>112</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BI243" s="1" t="s">
         <v>2034</v>
@@ -51728,13 +51663,13 @@
         <v>116</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BS243" s="3">
         <v>36111</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>119</v>
@@ -51752,13 +51687,13 @@
         <v>98</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>1025</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="244" spans="1:83" x14ac:dyDescent="0.25">
@@ -51793,13 +51728,13 @@
         <v>93</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="L244" s="1" t="s">
         <v>2425</v>
       </c>
-      <c r="L244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>2426</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>2427</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>97</v>
@@ -51895,10 +51830,10 @@
         <v>112</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="BI244" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>115</v>
@@ -51910,13 +51845,13 @@
         <v>116</v>
       </c>
       <c r="BR244" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="BS244" s="3">
         <v>37785</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>119</v>
@@ -51934,13 +51869,13 @@
         <v>98</v>
       </c>
       <c r="CC244" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="CD244" s="1" t="s">
         <v>2431</v>
       </c>
-      <c r="CD244" s="1" t="s">
+      <c r="CE244" s="1" t="s">
         <v>2432</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2433</v>
       </c>
     </row>
     <row r="245" spans="1:83" x14ac:dyDescent="0.25">
@@ -51975,13 +51910,13 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2434</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2435</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2436</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>97</v>
@@ -52077,7 +52012,7 @@
         <v>112</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>115</v>
@@ -52086,7 +52021,7 @@
         <v>103</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>119</v>
@@ -52107,10 +52042,10 @@
         <v>1132</v>
       </c>
       <c r="CD245" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="CE245" s="1" t="s">
         <v>2439</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2440</v>
       </c>
     </row>
     <row r="246" spans="1:83" x14ac:dyDescent="0.25">
@@ -52148,10 +52083,10 @@
         <v>247</v>
       </c>
       <c r="L246" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="M246" s="1" t="s">
         <v>2441</v>
-      </c>
-      <c r="M246" s="1" t="s">
-        <v>2442</v>
       </c>
       <c r="N246" s="1" t="s">
         <v>249</v>
@@ -52184,7 +52119,7 @@
         <v>42582</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>104</v>
@@ -52235,10 +52170,10 @@
         <v>250</v>
       </c>
       <c r="BH246" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="BI246" s="1" t="s">
         <v>2444</v>
-      </c>
-      <c r="BI246" s="1" t="s">
-        <v>2445</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>115</v>
@@ -52312,16 +52247,16 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2446</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="M247" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="N247" s="1" t="s">
         <v>2447</v>
-      </c>
-      <c r="M247" s="1" t="s">
-        <v>2442</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2448</v>
       </c>
       <c r="Q247" s="3">
         <v>17060</v>
@@ -52357,7 +52292,7 @@
         <v>42628</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="AF247" s="1" t="s">
         <v>104</v>
@@ -52408,16 +52343,16 @@
         <v>98</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BD247" s="1" t="s">
         <v>217</v>
       </c>
       <c r="BH247" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="BI247" s="1" t="s">
         <v>2451</v>
-      </c>
-      <c r="BI247" s="1" t="s">
-        <v>2452</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>115</v>
@@ -52426,7 +52361,7 @@
         <v>103</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>119</v>
@@ -52450,7 +52385,7 @@
         <v>123</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="248" spans="1:83" x14ac:dyDescent="0.25">
@@ -52485,16 +52420,16 @@
         <v>93</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="L248" s="1" t="s">
         <v>2455</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="M248" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="N248" s="1" t="s">
         <v>2456</v>
-      </c>
-      <c r="M248" s="1" t="s">
-        <v>2442</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>2457</v>
       </c>
       <c r="Q248" s="3">
         <v>26864</v>
@@ -52524,7 +52459,7 @@
         <v>42735</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="AF248" s="1" t="s">
         <v>104</v>
@@ -52575,7 +52510,7 @@
         <v>99</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>115</v>
@@ -52587,13 +52522,13 @@
         <v>205</v>
       </c>
       <c r="BR248" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BS248" s="3">
         <v>102</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>119</v>
@@ -52614,13 +52549,13 @@
         <v>98</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="CD248" s="1" t="s">
         <v>2462</v>
       </c>
-      <c r="CD248" s="1" t="s">
+      <c r="CE248" s="1" t="s">
         <v>2463</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>2464</v>
       </c>
     </row>
     <row r="249" spans="1:83" x14ac:dyDescent="0.25">
@@ -52655,16 +52590,16 @@
         <v>93</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="L249" s="1" t="s">
         <v>2465</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="M249" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="N249" s="1" t="s">
         <v>2466</v>
-      </c>
-      <c r="M249" s="1" t="s">
-        <v>2442</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>2467</v>
       </c>
       <c r="Q249" s="3">
         <v>17041</v>
@@ -52691,7 +52626,7 @@
         <v>42735</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>104</v>
@@ -52742,7 +52677,7 @@
         <v>98</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>115</v>
@@ -52751,7 +52686,7 @@
         <v>103</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>119</v>
@@ -52772,13 +52707,13 @@
         <v>98</v>
       </c>
       <c r="CC249" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="CD249" s="1" t="s">
         <v>2470</v>
       </c>
-      <c r="CD249" s="1" t="s">
+      <c r="CE249" s="1" t="s">
         <v>2471</v>
-      </c>
-      <c r="CE249" s="1" t="s">
-        <v>2472</v>
       </c>
     </row>
     <row r="250" spans="1:83" x14ac:dyDescent="0.25">
@@ -52813,16 +52748,16 @@
         <v>93</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="L250" s="1" t="s">
         <v>2473</v>
       </c>
-      <c r="L250" s="1" t="s">
+      <c r="M250" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="N250" s="1" t="s">
         <v>2474</v>
-      </c>
-      <c r="M250" s="1" t="s">
-        <v>2442</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>2475</v>
       </c>
       <c r="Q250" s="3">
         <v>25379</v>
@@ -52852,7 +52787,7 @@
         <v>39800</v>
       </c>
       <c r="AD250" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="AF250" s="1" t="s">
         <v>223</v>
@@ -52903,7 +52838,7 @@
         <v>99</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>115</v>
@@ -52915,13 +52850,13 @@
         <v>97</v>
       </c>
       <c r="BR250" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BS250" s="3">
         <v>35915</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>119</v>
@@ -52951,7 +52886,7 @@
         <v>433</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="251" spans="1:83" x14ac:dyDescent="0.25">
@@ -52986,13 +52921,13 @@
         <v>93</v>
       </c>
       <c r="K251" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="L251" s="1" t="s">
         <v>2481</v>
       </c>
-      <c r="L251" s="1" t="s">
+      <c r="N251" s="1" t="s">
         <v>2482</v>
-      </c>
-      <c r="N251" s="1" t="s">
-        <v>2483</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>97</v>
@@ -53070,7 +53005,7 @@
         <v>98</v>
       </c>
       <c r="AZ251" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BB251" s="1">
         <v>10</v>
@@ -53088,7 +53023,7 @@
         <v>112</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>115</v>
@@ -53097,7 +53032,7 @@
         <v>103</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>119</v>
@@ -53115,13 +53050,13 @@
         <v>98</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="CD251" s="1" t="s">
         <v>2487</v>
       </c>
-      <c r="CD251" s="1" t="s">
+      <c r="CE251" s="1" t="s">
         <v>2488</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>2489</v>
       </c>
     </row>
     <row r="252" spans="1:83" x14ac:dyDescent="0.25">
@@ -53156,13 +53091,13 @@
         <v>93</v>
       </c>
       <c r="K252" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="L252" s="1" t="s">
         <v>2490</v>
       </c>
-      <c r="L252" s="1" t="s">
+      <c r="N252" s="1" t="s">
         <v>2491</v>
-      </c>
-      <c r="N252" s="1" t="s">
-        <v>2492</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>97</v>
@@ -53240,7 +53175,7 @@
         <v>98</v>
       </c>
       <c r="AZ252" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="BB252" s="1">
         <v>10</v>
@@ -53258,7 +53193,7 @@
         <v>112</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>115</v>
@@ -53267,7 +53202,7 @@
         <v>103</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>119</v>
@@ -53285,13 +53220,13 @@
         <v>98</v>
       </c>
       <c r="CC252" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="CD252" s="1" t="s">
         <v>1005</v>
       </c>
       <c r="CE252" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="253" spans="1:83" x14ac:dyDescent="0.25">
@@ -53326,13 +53261,13 @@
         <v>93</v>
       </c>
       <c r="K253" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="L253" s="1" t="s">
         <v>2497</v>
       </c>
-      <c r="L253" s="1" t="s">
+      <c r="N253" s="1" t="s">
         <v>2498</v>
-      </c>
-      <c r="N253" s="1" t="s">
-        <v>2499</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>97</v>
@@ -53410,7 +53345,7 @@
         <v>98</v>
       </c>
       <c r="AZ253" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BB253" s="1">
         <v>10</v>
@@ -53428,7 +53363,7 @@
         <v>112</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>115</v>
@@ -53437,7 +53372,7 @@
         <v>103</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>119</v>
@@ -53458,10 +53393,10 @@
         <v>1005</v>
       </c>
       <c r="CD253" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="CE253" s="1" t="s">
         <v>2503</v>
-      </c>
-      <c r="CE253" s="1" t="s">
-        <v>2504</v>
       </c>
     </row>
     <row r="254" spans="1:83" x14ac:dyDescent="0.25">
@@ -53496,16 +53431,16 @@
         <v>93</v>
       </c>
       <c r="K254" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="L254" s="1" t="s">
         <v>2505</v>
-      </c>
-      <c r="L254" s="1" t="s">
-        <v>2506</v>
       </c>
       <c r="M254" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>97</v>
@@ -53580,7 +53515,7 @@
         <v>98</v>
       </c>
       <c r="AZ254" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="BB254" s="1">
         <v>10</v>
@@ -53601,7 +53536,7 @@
         <v>112</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="BI254" s="1" t="s">
         <v>2034</v>
@@ -53616,13 +53551,13 @@
         <v>205</v>
       </c>
       <c r="BR254" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="BS254" s="3">
         <v>37513</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>119</v>
@@ -53640,13 +53575,13 @@
         <v>98</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="CD254" s="1" t="s">
         <v>123</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="255" spans="1:83" x14ac:dyDescent="0.25">
@@ -53675,19 +53610,19 @@
         <v>91</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K255" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="L255" s="1" t="s">
         <v>2515</v>
       </c>
-      <c r="L255" s="1" t="s">
+      <c r="N255" s="1" t="s">
         <v>2516</v>
-      </c>
-      <c r="N255" s="1" t="s">
-        <v>2517</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>97</v>
@@ -53777,7 +53712,7 @@
         <v>112</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="BI255" s="1" t="s">
         <v>1850</v>
@@ -53792,13 +53727,13 @@
         <v>99</v>
       </c>
       <c r="BR255" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="BS255" s="3">
         <v>41024</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>119</v>
@@ -53807,7 +53742,7 @@
         <v>0</v>
       </c>
       <c r="BZ255" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="CA255" s="1" t="s">
         <v>121</v>
@@ -53816,13 +53751,13 @@
         <v>98</v>
       </c>
       <c r="CC255" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="CD255" s="1" t="s">
         <v>2522</v>
       </c>
-      <c r="CD255" s="1" t="s">
+      <c r="CE255" s="1" t="s">
         <v>2523</v>
-      </c>
-      <c r="CE255" s="1" t="s">
-        <v>2524</v>
       </c>
     </row>
     <row r="256" spans="1:83" x14ac:dyDescent="0.25">
@@ -53857,13 +53792,13 @@
         <v>93</v>
       </c>
       <c r="K256" s="1" t="s">
+        <v>2524</v>
+      </c>
+      <c r="L256" s="1" t="s">
         <v>2525</v>
       </c>
-      <c r="L256" s="1" t="s">
+      <c r="N256" s="1" t="s">
         <v>2526</v>
-      </c>
-      <c r="N256" s="1" t="s">
-        <v>2527</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>97</v>
@@ -53896,7 +53831,7 @@
         <v>104</v>
       </c>
       <c r="AG256" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="AH256" s="1" t="s">
         <v>1704</v>
@@ -53938,7 +53873,7 @@
         <v>98</v>
       </c>
       <c r="AZ256" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BB256" s="1">
         <v>10</v>
@@ -53956,7 +53891,7 @@
         <v>112</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="BI256" s="1" t="s">
         <v>2034</v>
@@ -53971,13 +53906,13 @@
         <v>116</v>
       </c>
       <c r="BR256" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="BS256" s="3">
         <v>34808</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>119</v>
@@ -53995,13 +53930,13 @@
         <v>98</v>
       </c>
       <c r="CC256" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="CD256" s="1" t="s">
         <v>2532</v>
       </c>
-      <c r="CD256" s="1" t="s">
+      <c r="CE256" s="1" t="s">
         <v>2533</v>
-      </c>
-      <c r="CE256" s="1" t="s">
-        <v>2534</v>
       </c>
     </row>
     <row r="257" spans="1:84" x14ac:dyDescent="0.25">
@@ -54018,7 +53953,7 @@
         <v>87</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>89</v>
@@ -54036,13 +53971,13 @@
         <v>93</v>
       </c>
       <c r="K257" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L257" s="1" t="s">
         <v>2536</v>
       </c>
-      <c r="L257" s="1" t="s">
+      <c r="N257" s="1" t="s">
         <v>2537</v>
-      </c>
-      <c r="N257" s="1" t="s">
-        <v>2538</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>97</v>
@@ -54117,7 +54052,7 @@
         <v>98</v>
       </c>
       <c r="AZ257" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="BB257" s="1">
         <v>10</v>
@@ -54135,7 +54070,7 @@
         <v>112</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="BI257" s="1" t="s">
         <v>815</v>
@@ -54150,13 +54085,13 @@
         <v>99</v>
       </c>
       <c r="BR257" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BS257" s="3">
         <v>37336</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>119</v>
@@ -54165,7 +54100,7 @@
         <v>0</v>
       </c>
       <c r="BZ257" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="CA257" s="1" t="s">
         <v>121</v>
@@ -54174,13 +54109,13 @@
         <v>98</v>
       </c>
       <c r="CC257" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="CD257" s="1" t="s">
         <v>2544</v>
       </c>
-      <c r="CD257" s="1" t="s">
+      <c r="CE257" s="1" t="s">
         <v>2545</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>2546</v>
       </c>
     </row>
     <row r="258" spans="1:84" x14ac:dyDescent="0.25">
@@ -54215,13 +54150,13 @@
         <v>93</v>
       </c>
       <c r="K258" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="L258" s="1" t="s">
         <v>2547</v>
       </c>
-      <c r="L258" s="1" t="s">
+      <c r="N258" s="1" t="s">
         <v>2548</v>
-      </c>
-      <c r="N258" s="1" t="s">
-        <v>2549</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>97</v>
@@ -54299,7 +54234,7 @@
         <v>98</v>
       </c>
       <c r="AZ258" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="BB258" s="1">
         <v>10</v>
@@ -54317,7 +54252,7 @@
         <v>112</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BI258" s="1" t="s">
         <v>815</v>
@@ -54329,7 +54264,7 @@
         <v>103</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>119</v>
@@ -54347,13 +54282,13 @@
         <v>98</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="CD258" s="1" t="s">
         <v>2553</v>
       </c>
-      <c r="CD258" s="1" t="s">
+      <c r="CE258" s="1" t="s">
         <v>2554</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>2555</v>
       </c>
     </row>
     <row r="259" spans="1:84" x14ac:dyDescent="0.25">
@@ -54370,7 +54305,7 @@
         <v>87</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>89</v>
@@ -54382,19 +54317,19 @@
         <v>91</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K259" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="L259" s="1" t="s">
         <v>2558</v>
       </c>
-      <c r="L259" s="1" t="s">
+      <c r="N259" s="1" t="s">
         <v>2559</v>
-      </c>
-      <c r="N259" s="1" t="s">
-        <v>2560</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>97</v>
@@ -54487,7 +54422,7 @@
         <v>112</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>115</v>
@@ -54496,7 +54431,7 @@
         <v>103</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>119</v>
@@ -54505,7 +54440,7 @@
         <v>0</v>
       </c>
       <c r="BZ259" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="CA259" s="1" t="s">
         <v>121</v>
@@ -54514,13 +54449,13 @@
         <v>98</v>
       </c>
       <c r="CC259" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="CD259" s="1" t="s">
         <v>2564</v>
       </c>
-      <c r="CD259" s="1" t="s">
+      <c r="CE259" s="1" t="s">
         <v>2565</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>2566</v>
       </c>
     </row>
     <row r="260" spans="1:84" x14ac:dyDescent="0.25">
@@ -54555,16 +54490,16 @@
         <v>93</v>
       </c>
       <c r="K260" s="1" t="s">
+        <v>2566</v>
+      </c>
+      <c r="L260" s="1" t="s">
         <v>2567</v>
       </c>
-      <c r="L260" s="1" t="s">
+      <c r="M260" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="N260" s="1" t="s">
         <v>2568</v>
-      </c>
-      <c r="M260" s="1" t="s">
-        <v>2442</v>
-      </c>
-      <c r="N260" s="1" t="s">
-        <v>2569</v>
       </c>
       <c r="Q260" s="3">
         <v>23750</v>
@@ -54593,12 +54528,7 @@
       <c r="AA260" s="1">
         <v>0</v>
       </c>
-      <c r="AC260" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD260" s="1" t="s">
-        <v>2570</v>
-      </c>
+      <c r="AC260" s="3"/>
       <c r="AF260" s="1" t="s">
         <v>104</v>
       </c>
@@ -54648,13 +54578,13 @@
         <v>98</v>
       </c>
       <c r="AZ260" s="1" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="BD260" s="1" t="s">
         <v>1106</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>115</v>
@@ -54663,7 +54593,7 @@
         <v>103</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>119</v>
@@ -54687,10 +54617,10 @@
         <v>1045</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="261" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -54846,7 +54776,7 @@
         <v>112</v>
       </c>
       <c r="BH261" s="4" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="BI261" s="4"/>
       <c r="BJ261" s="4"/>
@@ -54935,16 +54865,16 @@
         <v>93</v>
       </c>
       <c r="K262" s="4" t="s">
+        <v>2480</v>
+      </c>
+      <c r="L262" s="4" t="s">
         <v>2481</v>
-      </c>
-      <c r="L262" s="4" t="s">
-        <v>2482</v>
       </c>
       <c r="M262" s="4" t="s">
         <v>99</v>
       </c>
       <c r="N262" s="4" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="O262" s="4" t="s">
         <v>97</v>
@@ -55033,7 +54963,7 @@
         <v>98</v>
       </c>
       <c r="AZ262" s="4" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BA262" s="4" t="s">
         <v>266</v>
@@ -55051,7 +54981,7 @@
         <v>112</v>
       </c>
       <c r="BH262" s="4" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="BI262" s="4"/>
       <c r="BJ262" s="4"/>
@@ -55066,7 +54996,7 @@
       <c r="BQ262" s="4"/>
       <c r="BR262" s="4"/>
       <c r="BT262" s="4" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BU262" s="4" t="s">
         <v>119</v>
@@ -55087,13 +55017,13 @@
         <v>98</v>
       </c>
       <c r="CC262" s="4" t="s">
+        <v>2486</v>
+      </c>
+      <c r="CD262" s="4" t="s">
         <v>2487</v>
       </c>
-      <c r="CD262" s="4" t="s">
+      <c r="CE262" s="4" t="s">
         <v>2488</v>
-      </c>
-      <c r="CE262" s="4" t="s">
-        <v>2489</v>
       </c>
       <c r="CF262" s="4"/>
     </row>
@@ -55111,7 +55041,7 @@
         <v>87</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="F263" s="4" t="s">
         <v>89</v>
@@ -55129,14 +55059,14 @@
         <v>93</v>
       </c>
       <c r="K263" s="4" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L263" s="4" t="s">
         <v>2536</v>
-      </c>
-      <c r="L263" s="4" t="s">
-        <v>2537</v>
       </c>
       <c r="M263" s="4"/>
       <c r="N263" s="4" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="O263" s="4" t="s">
         <v>97</v>
@@ -55223,7 +55153,7 @@
         <v>98</v>
       </c>
       <c r="AZ263" s="4" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="BA263" s="4" t="s">
         <v>266</v>
@@ -55241,7 +55171,7 @@
         <v>112</v>
       </c>
       <c r="BH263" s="4" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="BI263" s="4"/>
       <c r="BJ263" s="4"/>
@@ -55257,13 +55187,13 @@
       <c r="BP263" s="4"/>
       <c r="BQ263" s="4"/>
       <c r="BR263" s="4" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BS263" s="5">
         <v>37336</v>
       </c>
       <c r="BT263" s="4" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BU263" s="4" t="s">
         <v>119</v>
@@ -55275,7 +55205,7 @@
       </c>
       <c r="BY263" s="4"/>
       <c r="BZ263" s="4" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="CA263" s="4" t="s">
         <v>121</v>
@@ -55284,13 +55214,13 @@
         <v>98</v>
       </c>
       <c r="CC263" s="4" t="s">
+        <v>2543</v>
+      </c>
+      <c r="CD263" s="4" t="s">
         <v>2544</v>
       </c>
-      <c r="CD263" s="4" t="s">
+      <c r="CE263" s="4" t="s">
         <v>2545</v>
-      </c>
-      <c r="CE263" s="4" t="s">
-        <v>2546</v>
       </c>
       <c r="CF263" s="4"/>
     </row>
@@ -55326,16 +55256,16 @@
         <v>1390</v>
       </c>
       <c r="K264" s="4" t="s">
+        <v>2546</v>
+      </c>
+      <c r="L264" s="4" t="s">
         <v>2547</v>
-      </c>
-      <c r="L264" s="4" t="s">
-        <v>2548</v>
       </c>
       <c r="M264" s="4" t="s">
         <v>99</v>
       </c>
       <c r="N264" s="4" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="O264" s="4" t="s">
         <v>97</v>
@@ -55424,7 +55354,7 @@
         <v>98</v>
       </c>
       <c r="AZ264" s="4" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="BA264" s="4" t="s">
         <v>266</v>
@@ -55442,7 +55372,7 @@
         <v>112</v>
       </c>
       <c r="BH264" s="4" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="BI264" s="4"/>
       <c r="BJ264" s="4"/>
@@ -55457,7 +55387,7 @@
       <c r="BQ264" s="4"/>
       <c r="BR264" s="4"/>
       <c r="BT264" s="4" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BU264" s="4" t="s">
         <v>119</v>
@@ -55478,13 +55408,13 @@
         <v>98</v>
       </c>
       <c r="CC264" s="4" t="s">
+        <v>2552</v>
+      </c>
+      <c r="CD264" s="4" t="s">
         <v>2553</v>
       </c>
-      <c r="CD264" s="4" t="s">
+      <c r="CE264" s="4" t="s">
         <v>2554</v>
-      </c>
-      <c r="CE264" s="4" t="s">
-        <v>2555</v>
       </c>
       <c r="CF264" s="4"/>
     </row>
@@ -55502,7 +55432,7 @@
         <v>87</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F265" s="4" t="s">
         <v>89</v>
@@ -55514,20 +55444,20 @@
         <v>91</v>
       </c>
       <c r="I265" s="4" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="J265" s="4" t="s">
         <v>93</v>
       </c>
       <c r="K265" s="4" t="s">
+        <v>2557</v>
+      </c>
+      <c r="L265" s="4" t="s">
         <v>2558</v>
-      </c>
-      <c r="L265" s="4" t="s">
-        <v>2559</v>
       </c>
       <c r="M265" s="4"/>
       <c r="N265" s="4" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="O265" s="4" t="s">
         <v>97</v>
@@ -55632,7 +55562,7 @@
         <v>112</v>
       </c>
       <c r="BH265" s="4" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="BI265" s="4"/>
       <c r="BJ265" s="4"/>
@@ -55647,7 +55577,7 @@
       <c r="BQ265" s="4"/>
       <c r="BR265" s="4"/>
       <c r="BT265" s="4" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="BU265" s="4" t="s">
         <v>119</v>
@@ -55659,7 +55589,7 @@
       </c>
       <c r="BY265" s="4"/>
       <c r="BZ265" s="4" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="CA265" s="4" t="s">
         <v>121</v>
@@ -55668,17 +55598,18 @@
         <v>98</v>
       </c>
       <c r="CC265" s="4" t="s">
+        <v>2563</v>
+      </c>
+      <c r="CD265" s="4" t="s">
         <v>2564</v>
       </c>
-      <c r="CD265" s="4" t="s">
+      <c r="CE265" s="4" t="s">
         <v>2565</v>
-      </c>
-      <c r="CE265" s="4" t="s">
-        <v>2566</v>
       </c>
       <c r="CF265" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF265" xr:uid="{B8358673-BDAB-4AB0-8358-6D98BD018539}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>